--- a/biology/Botanique/Jardin_Eugénie-Djendi/Jardin_Eugénie-Djendi.xlsx
+++ b/biology/Botanique/Jardin_Eugénie-Djendi/Jardin_Eugénie-Djendi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_Eug%C3%A9nie-Djendi</t>
+          <t>Jardin_Eugénie-Djendi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Eugénie Djendi est un jardin public situé dans le 15e arrondissement de Paris, sur la rive gauche de la Seine, dans le parc André-Citroën, voisin de l'hôpital européen Georges-Pompidou.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_Eug%C3%A9nie-Djendi</t>
+          <t>Jardin_Eugénie-Djendi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et desserte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin se trouve au 29 rue de la Montagne-de-la-Fage, dans le 15e arrondissement de Paris. Il est desservi par la ligne 10 (station Javel - André Citroën) et par la ligne 8 (stations Lourmel et Balard), le RER C (gare du Pont du Garigliano et gare de Javel) et la ligne de tramway T3a (station Pont du Garigliano).
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_Eug%C3%A9nie-Djendi</t>
+          <t>Jardin_Eugénie-Djendi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été nommé en juillet 2015 en mémoire de la résistante Eugénie Djendi[1], sous-lieutenant de l'armée française, "Morte pour la France " à Ravensbrück en 1945.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été nommé en juillet 2015 en mémoire de la résistante Eugénie Djendi, sous-lieutenant de l'armée française, "Morte pour la France " à Ravensbrück en 1945.
 Eugénie Djendi a été déclarée « Morte pour la France » et a reçu à titre posthume la Légion d'honneur, la Croix de guerre avec palme de vermeil et la médaille de la Résistance.
-En 2019, un monument aux morts pour la France en opérations extérieures (OPEX) est installé à l'intérieur du jardin[2]. Il est inauguré le 11 novembre 2019 par le président de la République française, Emmanuel Macron, en présence de familles et proches des défunts.
+En 2019, un monument aux morts pour la France en opérations extérieures (OPEX) est installé à l'intérieur du jardin. Il est inauguré le 11 novembre 2019 par le président de la République française, Emmanuel Macron, en présence de familles et proches des défunts.
 </t>
         </is>
       </c>
